--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>3.145939949069287</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.6950734580409845</v>
+        <v>2.51031180018495</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>1.769627576887389</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-1.61188520630966</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>0.1340591961779047</v>
+        <v>-1.56363396419209</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-4.774178217057779</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>1.128600547465064</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>2.296986336913043</v>
+        <v>1.68591416918662</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>1.97975191822708</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>2.397632938760519</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>1.914073781078174</v>
+        <v>3.609042024648068</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>3.452886745653183</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>0.5991205513815823</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>0.4006004000999708</v>
+        <v>2.11424984565185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>1.239479831392853</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>0.5555179840670776</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>1.876616141369425</v>
+        <v>0.9276342348636168</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.2379616621361214</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>1.749602965204744</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>1.584331200193811</v>
+        <v>1.3307042289459</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>1.51977456621637</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>1.513781691628258</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>1.79135380536608</v>
+        <v>0.3626364251072101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>1.470039379455756</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>1.72540577912379</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>1.746330563553644</v>
+        <v>1.339087911421144</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>1.638797242243251</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>2.026192376700298</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>2.447018641032073</v>
+        <v>1.006353890555189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>2.161565493242668</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>2.344166347125687</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>1.964247616811443</v>
+        <v>3.257358596620663</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>2.214251681313772</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>0.9005461608770915</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>-0.3495502250373428</v>
+        <v>-0.3013396321239648</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>0.6066442151010376</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-4.43626840667447</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-2.59027964978481</v>
+        <v>0.2691345740889695</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-4.207901339433196</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-1.513408827666285</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>0.2472868522434668</v>
+        <v>-0.6332519459683494</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>1.099928004397532</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>1.618732201786743</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>-0.3897128071776224</v>
+        <v>0.4297312830033428</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>2.310042359896225</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-0.09609276733164585</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>-0.01692245312473473</v>
+        <v>-0.177017417229286</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>0.0464415346324687</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.08221134935635366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>-0.02761034355766023</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>-0.3101476031197148</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.6100224805228427</v>
+      <c r="E19">
+        <v>0.5295174046934692</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-0.6332519459683494</v>
+        <v>23.52713729381604</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>0.4297312830033428</v>
+        <v>6.182044950645005</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-0.177017417229286</v>
+        <v>1.559758801257694</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.08221134935635366</v>
+        <v>-0.3513551123189185</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>0.5295174046934692</v>
+        <v>0.2561130241983234</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>3.145939949069287</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>2.51031180018495</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>1.769627576887389</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-1.56363396419209</v>
+        <v>-1.563633964192079</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +448,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-4.774178217057779</v>
+        <v>-4.774178217057756</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -497,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>2.11424984565185</v>
+        <v>2.114249845651872</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +499,7 @@
         <v>2012</v>
       </c>
       <c r="C7">
-        <v>1.239479831392853</v>
+        <v>1.239479831392831</v>
       </c>
       <c r="D7">
         <v>2013</v>
@@ -525,7 +516,7 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>0.2379616621361214</v>
+        <v>0.2379616621360992</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -559,13 +550,13 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>1.470039379455756</v>
+        <v>1.470039379455734</v>
       </c>
       <c r="D10">
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>1.339087911421144</v>
+        <v>1.339087911421122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +567,13 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>1.638797242243251</v>
+        <v>1.638797242243228</v>
       </c>
       <c r="D11">
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>1.006353890555189</v>
+        <v>1.006353890555212</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -616,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>-0.3013396321239648</v>
+        <v>-0.301339632123987</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,7 +624,7 @@
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>0.2691345740889695</v>
+        <v>0.2691345740890139</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>23.52713729381604</v>
+        <v>23.52713729381606</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +652,13 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>1.099928004397532</v>
+        <v>1.099928004397577</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>6.182044950645005</v>
+        <v>6.182044950645027</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,7 +669,7 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>2.310042359896225</v>
+        <v>2.310042359896247</v>
       </c>
       <c r="D17">
         <v>2023</v>
@@ -701,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-0.3513551123189185</v>
+        <v>-0.3513551123189074</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +703,13 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>-0.3101476031197148</v>
+        <v>-0.3101476031197037</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>0.2561130241983234</v>
+        <v>0.2561130241983456</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>0.2561130241983456</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>-0.08656168856399082</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>-0.02867614772544824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
